--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7C39735-9B8A-4AE0-B771-5C55D8AEBF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BC5BB0-B9D6-41F8-9D9C-C2C32E13D9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -36,9 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>E5:H14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>venu</t>
+  </si>
+  <si>
+    <t>Jhansi</t>
+  </si>
+  <si>
+    <t>Shritan</t>
+  </si>
+  <si>
+    <t>Smaran</t>
+  </si>
+  <si>
+    <t>Ramu</t>
+  </si>
+  <si>
+    <t>Laxman</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Balu</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>Krishna</t>
   </si>
 </sst>
 </file>
@@ -410,20 +437,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D17C2F-8368-491A-B7D7-339C634E7F86}">
-  <dimension ref="E5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BC5BB0-B9D6-41F8-9D9C-C2C32E13D9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2767D40B-4706-41EF-99E4-C8E3808315C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -437,92 +437,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D17C2F-8368-491A-B7D7-339C634E7F86}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>200</v>
+      </c>
+      <c r="D1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2767D40B-4706-41EF-99E4-C8E3808315C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C3230-D686-4D11-88BB-CB280368F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>venu</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>Krishna</t>
+  </si>
+  <si>
+    <t>Employee Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Hourly Wage</t>
+  </si>
+  <si>
+    <t>Hours Worked</t>
+  </si>
+  <si>
+    <t>Taxable Income</t>
   </si>
 </sst>
 </file>
@@ -437,34 +452,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D17C2F-8368-491A-B7D7-339C634E7F86}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1">
-        <v>200</v>
-      </c>
-      <c r="D1">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -473,12 +491,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -487,12 +505,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -501,87 +519,101 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>150</v>
       </c>
-      <c r="D5">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="D6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="D7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>160</v>
       </c>
-      <c r="D7">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="D8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>150</v>
       </c>
-      <c r="D8">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="D9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>180</v>
       </c>
-      <c r="D9">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="D10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>175</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>137</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C3230-D686-4D11-88BB-CB280368F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F7B85C-EFAE-47E7-BBD9-2DE132430379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F7B85C-EFAE-47E7-BBD9-2DE132430379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A1F009-0306-4B23-9238-45D7505BEB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -459,6 +459,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A1F009-0306-4B23-9238-45D7505BEB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75693F0A-54BD-40A4-BD1C-6DD7649A0174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>137</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75693F0A-54BD-40A4-BD1C-6DD7649A0174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946DF414-12A3-4FBB-8D99-EC1B696E69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>venu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Jhansi</t>
   </si>
@@ -81,6 +78,12 @@
   </si>
   <si>
     <t>Taxable Income</t>
+  </si>
+  <si>
+    <t>Venugopal Reddy</t>
+  </si>
+  <si>
+    <t>venugopal Reddy</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D17C2F-8368-491A-B7D7-339C634E7F86}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,19 +472,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -489,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -503,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -517,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -531,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -545,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -559,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>137</v>
@@ -573,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>160</v>
@@ -587,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>150</v>
@@ -601,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>180</v>
@@ -615,13 +618,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>175</v>
       </c>
       <c r="D11">
         <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946DF414-12A3-4FBB-8D99-EC1B696E69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C08FD0-A7E3-4C8C-9479-19431B9E1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Jhansi</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Taxable Income</t>
-  </si>
-  <si>
-    <t>Venugopal Reddy</t>
   </si>
   <si>
     <t>venugopal Reddy</t>
@@ -455,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D17C2F-8368-491A-B7D7-339C634E7F86}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -565,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>137</v>
@@ -625,14 +622,6 @@
       </c>
       <c r="D11">
         <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C08FD0-A7E3-4C8C-9479-19431B9E1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4920D840-0F6D-474C-A203-DDA79CD5F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,6 +497,10 @@
       <c r="D2">
         <v>137</v>
       </c>
+      <c r="E2">
+        <f>200*137</f>
+        <v>27400</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4920D840-0F6D-474C-A203-DDA79CD5F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA88426-5B5F-430A-B009-491B09F1BB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -498,7 +498,7 @@
         <v>137</v>
       </c>
       <c r="E2">
-        <f>200*137</f>
+        <f>C2*D2</f>
         <v>27400</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excell\Excell-handson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA88426-5B5F-430A-B009-491B09F1BB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A99DABA-F60C-4CF0-9167-786FA49DE236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DA290A0E-64B2-4FCF-830A-628C83D93748}"/>
   </bookViews>
@@ -455,13 +455,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
@@ -515,6 +515,10 @@
       <c r="D3">
         <v>137</v>
       </c>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>27400</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -529,6 +533,10 @@
       <c r="D4">
         <v>137</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">C4*D4</f>
+        <v>27400</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -543,6 +551,10 @@
       <c r="D5">
         <v>137</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>27400</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -557,6 +569,10 @@
       <c r="D6">
         <v>137</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20550</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -571,6 +587,10 @@
       <c r="D7">
         <v>137</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>20550</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -585,6 +605,10 @@
       <c r="D8">
         <v>137</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>21920</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -599,6 +623,10 @@
       <c r="D9">
         <v>137</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>20550</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -613,6 +641,10 @@
       <c r="D10">
         <v>137</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>24660</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -626,6 +658,10 @@
       </c>
       <c r="D11">
         <v>137</v>
+      </c>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v>23975</v>
       </c>
     </row>
   </sheetData>
